--- a/DOM_Banner/output/dept0723/Stefano Guerra_2022.xlsx
+++ b/DOM_Banner/output/dept0723/Stefano Guerra_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA.; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Department of Clinical Sciences and Education Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; Sachs' Children and Youth Hospital, Stockholm, Sweden; Department of Clinical Sciences and Education Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; Sachs' Children and Youth Hospital, Stockholm, Sweden; Institute of Environmental Medicine, Karolinska Institutet, Stockholm, Sweden; Division of Infection, Immunity and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, UK; Manchester Academic Health Science Centre and NIHR Biomedical Research Centre, Manchester University Hospitals NHS Foundation Trust, Manchester, UK; Division of Infection, Immunity and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, UK; Manchester Academic Health Science Centre and NIHR Biomedical Research Centre, Manchester University Hospitals NHS Foundation Trust, Manchester, UK; Section of Paediatrics, National Heart and Lung Institute, Imperial College London, London, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; Department of Clinical Sciences and Education Södersjukhuset, Karolinska Institutet, Stockholm, Sweden; Sachs' Children and Youth Hospital, Stockholm, Sweden; Division of Infection, Immunity and Respiratory Medicine, School of Biological Sciences, Faculty of Biology, Medicine and Health, University of Manchester, Manchester, UK; Manchester Academic Health Science Centre and NIHR Biomedical Research Centre, Manchester University Hospitals NHS Foundation Trust, Manchester, UK; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; ISGlobal, Barcelona Institute for Global Health, Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3217170501</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The role of growth and nutrition in the early origins of spirometric restriction in adult life: a longitudinal, multicohort, population-based study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Lancet Respiratory Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-2600(21)00355-6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34843665</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2213-2600(21)00355-6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Pulmonary Medicine, Department of Medicine, Faculty of Medicine &amp; Dentistry, University of Alberta, Edmonton, AB T6G 2R3, Canada; CIBER Epidemiología y Salud Pública (CIBERESP), Barcelona, Spain; Non-Communicable Diseases and Environment Programme, ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; School of Public Health and Preventive Medicine, Monash University, Melbourne, Victoria, Australia; Unit of Epidemiology and Medical Statistics, Department of Public Health and Community Medicine, University of Verona, Verona, Italy; National Heart and Lung Institute, Imperial College London, London, UK; CIBER Epidemiología y Salud Pública (CIBERESP), Barcelona, Spain; Non-Communicable Diseases and Environment Programme, ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Department of Public Health and Pediatrics, University of Turin, Torino, Italy; Centre for Environment and Health, Department of Public Health and Primary Care, KU Leuven, Leuven, Belgium; Epidemiology and Social Medicine, University of Antwerp, Antwerpen, Belgium; Unit of Respiratory Diseases, IRCCS Policlinico San Matteo, University of Pavia, Pavia, Italy; Department of Genetics &amp; Cell Biology, Maastricht University, Maastricht, The Netherlands; Department of Preventive Medicine, USC Keck School of Medicine, Los Angeles, California, USA; Department of Social Medicine, University of Crete, Rethimno, Greece; Department of Pulmonology, Division of Allergy, University Hospital of Montpellier, Montpellier, France; Inserm, Sorbonne Université, Equipe, EPAR - IPLESP, Paris, France; Osakidetza Basque Health Service, Department of Respiratory Medicine, Galdakao University Hospital, Galdakao, Spain; Section of Sustainable Health, Department of Public Health and Clinical Medicine, Umeå University, Umeå, Sweden; Department of Preventive Medicine, USC Keck School of Medicine, Los Angeles, California, USA; Department of Sleep, Landspitali - The National University Hospital of Iceland, Reykjavik, Iceland; Faculty of Medicine, University of Iceland, Reykjavik, Iceland; Department of Pneumology, Universitary Hospital San Agustín, Avilés, Spain; Institut of Epidemiology, Helmholtz Zentrum München, German Research Center for Environmental Health, Oberschleissheim, Germany; Institute and Outpatient Clinic for Occupational, Social and Environmental Medicine, Ludwig Maximilians University Munich, University Hospital Munich, Munich, Germany; Department of Public Health and Community Medicine, Institute of Medicine, University of Gothenburg, Gothenburg, Sweden; Department of Medical Sciences, Respiratory, Allergy and Sleep Research, Uppsala University, Uppsala, Sweden; Lung Clinic, Tartu University Hospital, Tartu, Estonia; Department of Clinical Science, University of Bergen, Bergen, Norway; Department of Gynaecology and Obstetrics, Haukeland University Hospital, Bergen, Norway; MRC Centre for Environment and Health, Imperial College London, London, UK; Inserm - U1168, VIMA (Aging and Chronic Diseases. Epidemiological and Public Health Approaches), INSERM, Villejuif, France; UMR-S 1168, Université de Versailles Saint-Quentin-en-Yvelines - UVSQ, Saint-Quentin-en-Yvelines, France; Institute and Outpatient Clinic for Occupational, Social and Environmental Medicine, Ludwig Maximilians University Munich, University Hospital Munich, Munich, Germany; Department Epidemiology and Public Health, Swiss Tropical and Public Health Institute, Basel, Switzerland; Department of Clinical Research, University of Basel, Basel, Switzerland; Department of Nursing, University of Huelva, Huelva, Spain; INSERM U1219, Institute of Public Health and Epidemiology, CHU de Bordeaux, Bordeaux, France; Team of Environemental Epidemiology, Inserm U1209, Univ Grenoble Alpes, La Tronche, France; Arizona Respiratory Center, University of Arizona Medical Center - University Campus, Tucson, Arizona, USA; CIBER Epidemiología y Salud Pública (CIBERESP), Barcelona, Spain; Non-Communicable Diseases and Environment Programme, ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Barcelona, Spain; Non-Communicable Diseases and Environment Programme, ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224997212</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Long-term effect of asthma on the development of obesity among adults: an international cohort study, ECRHS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Thorax</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/thoraxjnl-2021-217867</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35477559</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/thoraxjnl-2021-217867</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Maastricht University, Faculty of Health, Medicine and Life Sciences, the Netherlands.; CIBER Epidemiología y Salud Pública (CIBERESP), Spain; ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain; ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain; ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain; ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; ISGlobal, Barcelona, Spain; Fundació Institut Universitari per a la recerca a l'Atenció Primària de Salut Jordi Gol i Gurina (IDIAPJGol), Barcelona, Spain; ISGlobal, Barcelona, Spain; Spanish Consortium for research on Epidemiology and Public Health (CIBERESP), Madrid, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain; ISGlobal, Barcelona, Spain; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Catalonia, Spain; ISGlobal, Hospital Clínic, Universitat de Barcelona, Barcelona, Catalonia, Spain; CIBER Epidemiología y Salud Pública (CIBERESP), Spain; ISGlobal, Barcelona, Spain; Universitat Pompeu Fabra (UPF), Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3195135728</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Associations between pre- and postnatal exposure to air pollution and lung health in children and assessment of CC16 as a potential mediator</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Environmental Research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.envres.2021.111900</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34419474</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.envres.2021.111900</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz.; University of Bristol, Avon, United Kingdom; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; University of Bristol, Avon, United Kingdom; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3206478864</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>High Insulin in Early Childhood Is Associated with Subsequent Asthma Risk Independent of Body Mass Index</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2021.09.047</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34656798</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2021.09.047</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221095497</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Club cell secretory protein and lung function in children with cystic fibrosis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Cystic Fibrosis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcf.2022.03.007</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35367162</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcf.2022.03.007</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225813833</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>CC16 Deficiency in the Context of Early-Life &lt;i&gt;Mycoplasma pneumoniae&lt;/i&gt; Infection Results in Augmented Airway Responses in Adult Mice</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-02-17</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Infection and Immunity</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>American Society for Microbiology</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/iai.00548-21</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34780280</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/iai.00548-21</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nathan Lothrop, Nicolás López-Gálvez, Robert A. Canales, Mary Kay O’Rourke, Stefano Guerra, Paloma I. Beamer</t>
+          <t>Nathan Lothrop, Nicolas López-Gálvez, Robert A. Canales, Mary Kay O’Rourke, Stefano Guerra, Paloma I. Beamer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85721, USA.; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85721, USA; School of Public Health, San Diego State University, San Diego, CA 92182, USA; Program in Applied Mathematics, University of Arizona, Tucson, AZ 85721, USA; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ 85721, USA; Asthma and Airway Disease Research Center, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Asthma and Airway Disease Research Center, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; School of Public Health, San Diego State University, San Diego, CA 92182, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220739268</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sampling Low Air Pollution Concentrations at a Neighborhood Scale in a Desert U.S. Metropolis with Volatile Weather Patterns</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph19063173</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35328861</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijerph19063173</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Biomedical Informatics, the University of Utah School of Medicine, Salt Lake City, Utah; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Biomedical Informatics, the University of Utah School of Medicine, Salt Lake City, Utah; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz; Department of Otolaryngology, Tucson, Ariz; Department of Biomedical Informatics, the University of Utah School of Medicine, Salt Lake City, Utah; Asthma/Airway Disease Research Center, Tucson, Ariz; College of Medicine, Tucson, Ariz; University of Arizona BIO5 Institute, University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225253433</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Epithelial cell responses to rhinovirus identify an early-life–onset asthma phenotype in adults</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2022.03.020</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35367470</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2022.03.020</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Utah School of Medicine; University of Arizona; University of Arizona; University of Arizona; University of Utah School of Medicine; University of Arizona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210663492</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Epithelial cell responses to rhinovirus identify an early-life-onset asthma phenotype in adults</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.731</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.731</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,39 +1235,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283826408</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Nonobstructive Chronic Bronchitis</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2022.03.020</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35809926</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2022.03.020</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286447471</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sleep Disorders in Myasthenia Gravis</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sleep Medicine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2022.05.468</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.sleep.2022.05.468</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Department of Clinical Science and Education Södersjukhuset Karolinska Institutet  Stockholm Sweden</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310260985</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Small babies at birth, small lungs for life?</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-11-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Respirology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/resp.14412</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36437530</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/resp.14412</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0723/Stefano Guerra_2022.xlsx
+++ b/DOM_Banner/output/dept0723/Stefano Guerra_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Subhabrata Moitra, Anne-Elie Carsin, Michael J. Abramson, Simone Accordini, André Amaral, Josep M. Antó, Roberto Bono, Lidia Casas, Isa Cerveri, Leda Chatzi, P. Démoly, Sandra Dorado Arenas, Bertil Forsberg, Frank D. Gilliland, Þórarinn Gíslason, José Antonio Gullón Blanco, Joachim Heinrich, Mathias Holm, Christer Janson, Rain Jõgi, Francisco Gómez Real, Déborah Jarvis, Bénédicte Leynaert, Dennis Nowak, Nicole Probst-Hensch, José Luis Sánchez-Ramos, Chantal Raherison‐Semjen, Valérie Siroux, Stefano Guerra, Manolis Kogevinas, Judith García-Aymerich</t>
+          <t>Subhabrata Moitra, Anne-Elie Carsin, Michael J. Abramson, Simone Accordini, André Amaral, Josep M. Antó, Roberto Bono, Lidia Casas, Isa Cerveri, Leda Chatzi, P. Démoly, Sandra Dorado Arenas, Bertil Forsberg, Frank D. Gilliland, Þórarinn Gíslason, José Antonio Gullón Blanco, Joachim Heinrich, Mathias Holm, Christer Janson, Rain Jögi, Francisco Gómez Real, Déborah Jarvis, Bénédicte Leynaert, Dennis Nowak, Nicole Probst-Hensch, José Luis Sánchez-Ramos, Chantal Raherison‐Semjen, Valérie Siroux, Stefano Guerra, Manolis Kogevinas, Judith Garcia‐Aymerich</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Raquel Granell, Debra A. Stern, Stefano Guerra, Anne L. Wright, Marilyn Halonen, John Henderson, Fernando D. Martínez</t>
+          <t>Tara Carr, Raquel Granell, Debra A. Stern, Stefano Guerra, Anne L. Wright, Marilyn Halonen, John Henderson, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nathan Lothrop, Nicolas López-Gálvez, Robert A. Canales, Mary Kay O’Rourke, Stefano Guerra, Paloma I. Beamer</t>
+          <t>Nathan Lothrop, Nicolás López-Gálvez, Robert A. Canales, Mary Kay O’Rourke, Stefano Guerra, Paloma I. Beamer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eugene H. Chang, Nima Pouladi, Stefano Guerra, Jana Jandova, Alexander Kim, LI Hai-quan, Jiànróng Lǐ, Wayne J. Morgan, Debra A. Stern, Amanda L. Willis, Yves A. Lussier, Fernando D. Martínez</t>
+          <t>Eugene H. Chang, Nima Pouladi, Stefano Guerra, Jana Jandova, Alexander Kim, Haiquan Li, Jiànróng Lǐ, Wayne J. Morgan, Debra A. Stern, Amanda L. Willis, Yves A. Lussier, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1230,32 +1230,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stefano Guerra</t>
+          <t>M. Argel, R Ferro, Stefano Guerra, P. Fernandes, Margarida Silva Conceicao, Isabel Gil Pereira, A. Simões Torres</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ</t>
+          <t>Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283826408</t>
+          <t>https://openalex.org/W4286447471</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nonobstructive Chronic Bronchitis</t>
+          <t>Sleep Disorders in Myasthenia Gravis</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Sleep Medicine</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2022.03.020</t>
+          <t>https://doi.org/10.1016/j.sleep.2022.05.468</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35809926</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2022.03.020</t>
+          <t>https://doi.org/10.1016/j.sleep.2022.05.468</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M. Argel, R Ferro, Stefano Guerra, P. Fernandes, Margarida Silva Conceicao, Isabel Gil Pereira, A. Simões Torres</t>
+          <t>Stefano Guerra, Erik Melén</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal; Centro Hospitalar Tondela-Viseu, Viseu, Portugal</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Department of Clinical Science and Education Södersjukhuset Karolinska Institutet  Stockholm Sweden</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286447471</t>
+          <t>https://openalex.org/W4310260985</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sleep Disorders in Myasthenia Gravis</t>
+          <t>Small babies at birth, small lungs for life?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-11-27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sleep Medicine</t>
+          <t>Respirology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2022.05.468</t>
+          <t>https://doi.org/10.1111/resp.14412</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36437530</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sleep.2022.05.468</t>
+          <t>https://doi.org/10.1111/resp.14412</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Stefano Guerra, Erik Melén</t>
+          <t>Stefano Guerra</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona, USA; Department of Clinical Science and Education Södersjukhuset Karolinska Institutet  Stockholm Sweden</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310260985</t>
+          <t>https://openalex.org/W4283826408</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Small babies at birth, small lungs for life?</t>
+          <t>Nonobstructive Chronic Bronchitis</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-11-27</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Respirology</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/resp.14412</t>
+          <t>https://doi.org/10.1016/j.chest.2022.03.020</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36437530</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35809926</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/resp.14412</t>
+          <t>https://doi.org/10.1016/j.chest.2022.03.020</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
